--- a/protected/modules/rekappenjualanperbarang.xlsx
+++ b/protected/modules/rekappenjualanperbarang.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DAA912-AC6C-43A3-9F78-5EDC892C5F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="2355" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,8 +28,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,9 +88,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -139,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,27 +167,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,24 +201,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,14 +376,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
@@ -434,12 +392,12 @@
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
